--- a/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>53735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41440</v>
+        <v>42734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66858</v>
+        <v>67669</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2110870355488755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1627902229189938</v>
+        <v>0.167872006961611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2626402830768876</v>
+        <v>0.2658245306593419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -762,19 +762,19 @@
         <v>36076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29403</v>
+        <v>29039</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43410</v>
+        <v>43380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4905045898825453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3997711429131707</v>
+        <v>0.3948318865269945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5902147229158374</v>
+        <v>0.5898149459504568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -783,19 +783,19 @@
         <v>89811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76001</v>
+        <v>77123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106362</v>
+        <v>105386</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2737214258014851</v>
+        <v>0.273721425801485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2316327075393016</v>
+        <v>0.2350504995583896</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3241637404604965</v>
+        <v>0.3211893383010015</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>101437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86328</v>
+        <v>87115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117369</v>
+        <v>115671</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.398477403566775</v>
+        <v>0.3984774035667749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3391244038808346</v>
+        <v>0.3422173796545939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4610635133959703</v>
+        <v>0.4543949064566092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -833,19 +833,19 @@
         <v>21351</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15926</v>
+        <v>15548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28833</v>
+        <v>27724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2903015639434204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2165408067220426</v>
+        <v>0.2113969338435859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3920248684138644</v>
+        <v>0.3769461655840501</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -854,19 +854,19 @@
         <v>122789</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108769</v>
+        <v>107932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140060</v>
+        <v>138722</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3742286487917553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3315003758695546</v>
+        <v>0.3289490060888583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4268687884737514</v>
+        <v>0.4227902990128044</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>54212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43289</v>
+        <v>42328</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68350</v>
+        <v>67255</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2129622044395909</v>
+        <v>0.2129622044395908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1700524809567424</v>
+        <v>0.1662791729066916</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2685007574637273</v>
+        <v>0.2641986338837641</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -904,19 +904,19 @@
         <v>7222</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12571</v>
+        <v>12235</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09819556669348613</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05051684457081849</v>
+        <v>0.05053361793795593</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1709147353325455</v>
+        <v>0.166348747492101</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -925,19 +925,19 @@
         <v>61434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49186</v>
+        <v>48735</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76153</v>
+        <v>75014</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1872360527891997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.14990621631265</v>
+        <v>0.1485328236251437</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2320961462756728</v>
+        <v>0.2286230613045051</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>16014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9298</v>
+        <v>9786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25317</v>
+        <v>24887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06290741678124114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03652700505760691</v>
+        <v>0.03844393127205532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09945442249835475</v>
+        <v>0.09776452984734088</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -975,19 +975,19 @@
         <v>3070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1033</v>
+        <v>1089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6765</v>
+        <v>6977</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04174489850230333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01404939562427823</v>
+        <v>0.01480237815577073</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09198151848755456</v>
+        <v>0.09486218181521976</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -996,19 +996,19 @@
         <v>19084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11964</v>
+        <v>12384</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28345</v>
+        <v>28983</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05816361522671135</v>
+        <v>0.05816361522671136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03646296307576598</v>
+        <v>0.03774186080031861</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0863882466437348</v>
+        <v>0.08833373257540211</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>10471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5826</v>
+        <v>5485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18609</v>
+        <v>18770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04113501264963192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02288610334943584</v>
+        <v>0.02154537179999428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07310299312752964</v>
+        <v>0.07373282021119074</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1046,19 +1046,19 @@
         <v>1844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4569</v>
+        <v>5613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02506525976023637</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006834554528252173</v>
+        <v>0.007297141289646915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06212347929568848</v>
+        <v>0.07631026971515358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1067,19 +1067,19 @@
         <v>12315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6886</v>
+        <v>7064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20331</v>
+        <v>20935</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0375328081419815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02098602987090062</v>
+        <v>0.02152880630673789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0619628042389166</v>
+        <v>0.06380479061625266</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>7406</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2920</v>
+        <v>3133</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15382</v>
+        <v>15422</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02909438036572482</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0114709809845089</v>
+        <v>0.01230567182100598</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06042517968634908</v>
+        <v>0.06058299562906465</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1117,19 +1117,19 @@
         <v>1766</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5224</v>
+        <v>4623</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02401392787226084</v>
+        <v>0.02401392787226083</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005625329905606016</v>
+        <v>0.005597764103011885</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07103038544735675</v>
+        <v>0.06285541129864189</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1138,19 +1138,19 @@
         <v>9173</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4353</v>
+        <v>4704</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17287</v>
+        <v>17694</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0279555433842964</v>
+        <v>0.02795554338429641</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01326673377019848</v>
+        <v>0.0143351792945874</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0526873975605117</v>
+        <v>0.05392745072400982</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>3419</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1052</v>
+        <v>1211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8301</v>
+        <v>8103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.013429416928948</v>
+        <v>0.01342941692894799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004133407177375657</v>
+        <v>0.004756990237046263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03260971981005214</v>
+        <v>0.03183287343476932</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2118</v>
+        <v>2503</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00627867217985716</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02880043632147581</v>
+        <v>0.03403691204210118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1209,19 +1209,19 @@
         <v>3880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1403</v>
+        <v>1576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9027</v>
+        <v>9109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0118265021146679</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004275087490724235</v>
+        <v>0.004802069147081579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02751064744977983</v>
+        <v>0.02776296853942789</v>
       </c>
     </row>
     <row r="11">
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8069</v>
+        <v>7622</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.008781940516502556</v>
+        <v>0.008781940516502555</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03169647332775231</v>
+        <v>0.02994316741526732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9229</v>
+        <v>9383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006813375975890429</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.028126951494024</v>
+        <v>0.0285962479491898</v>
       </c>
     </row>
     <row r="12">
@@ -1301,19 +1301,19 @@
         <v>5632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2619</v>
+        <v>2402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10652</v>
+        <v>10766</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0221251892027102</v>
+        <v>0.02212518920271019</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01028795380164861</v>
+        <v>0.009437667523841786</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04184578936605087</v>
+        <v>0.04229049766815426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8663</v>
+        <v>9332</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02389552116589043</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1177842155745592</v>
+        <v>0.1268845298122969</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1343,19 +1343,19 @@
         <v>7390</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3520</v>
+        <v>3683</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14317</v>
+        <v>14862</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02252202777401229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01072846455106724</v>
+        <v>0.0112237604620744</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04363490819546959</v>
+        <v>0.04529619584817343</v>
       </c>
     </row>
     <row r="13">
@@ -1447,19 +1447,19 @@
         <v>207555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174073</v>
+        <v>176845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240745</v>
+        <v>239891</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.198725474901958</v>
+        <v>0.1987254749019581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1666673017361563</v>
+        <v>0.1693215677559595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2305031034629409</v>
+        <v>0.229685611326209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>306</v>
@@ -1468,19 +1468,19 @@
         <v>221614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199975</v>
+        <v>200866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242559</v>
+        <v>242849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.396208500582318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3575207630678255</v>
+        <v>0.3591138821106269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4336537923696421</v>
+        <v>0.4341736493265365</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>482</v>
@@ -1489,19 +1489,19 @@
         <v>429169</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>392626</v>
+        <v>392706</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>468848</v>
+        <v>468278</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2676004726778468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2448142517320288</v>
+        <v>0.2448647370918645</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2923412026303178</v>
+        <v>0.2919862447181754</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>436060</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>401896</v>
+        <v>400795</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>472337</v>
+        <v>471249</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4175093713829756</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3847984420835568</v>
+        <v>0.3837445141158971</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4522426492348238</v>
+        <v>0.4512010273844246</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>244</v>
@@ -1539,19 +1539,19 @@
         <v>188670</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>169767</v>
+        <v>169132</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>209640</v>
+        <v>209006</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3373103638291109</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3035151130860766</v>
+        <v>0.3023789122860622</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3748004084404825</v>
+        <v>0.3736678347924395</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>655</v>
@@ -1560,19 +1560,19 @@
         <v>624730</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>585988</v>
+        <v>581341</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>667276</v>
+        <v>664420</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3895388334196703</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3653816768199874</v>
+        <v>0.362484338769182</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4160671094102362</v>
+        <v>0.4142863369304408</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>220498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>190434</v>
+        <v>192468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>249061</v>
+        <v>252603</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2111174484194015</v>
+        <v>0.2111174484194016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1823330217729212</v>
+        <v>0.1842805031736455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2384659133313332</v>
+        <v>0.2418571751695631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -1610,19 +1610,19 @@
         <v>93334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76267</v>
+        <v>76191</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112148</v>
+        <v>111763</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.166866288599284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1363519312376325</v>
+        <v>0.1362162552793539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2005019056227755</v>
+        <v>0.1998141439568247</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>292</v>
@@ -1631,19 +1631,19 @@
         <v>313832</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>279552</v>
+        <v>279820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349455</v>
+        <v>347170</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1956842306849105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1743092246836326</v>
+        <v>0.1744764878388778</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2178959402542248</v>
+        <v>0.2164715432194367</v>
       </c>
     </row>
     <row r="17">
@@ -1660,19 +1660,19 @@
         <v>75778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57494</v>
+        <v>56545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101272</v>
+        <v>98263</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07255399246988975</v>
+        <v>0.07255399246988976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05504798653932017</v>
+        <v>0.05413943051691666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09696405963967504</v>
+        <v>0.09408267149964954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1681,19 +1681,19 @@
         <v>25660</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17571</v>
+        <v>17266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37272</v>
+        <v>37354</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04587590317620198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03141393221349429</v>
+        <v>0.03086943438820394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06663672866307256</v>
+        <v>0.06678327724507564</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>88</v>
@@ -1702,19 +1702,19 @@
         <v>101438</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81401</v>
+        <v>82282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127318</v>
+        <v>129598</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06324963157893526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05075619548132215</v>
+        <v>0.05130563395548794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07938652898828062</v>
+        <v>0.08080845589918134</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>53257</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37388</v>
+        <v>37784</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72395</v>
+        <v>73842</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05099146831574136</v>
+        <v>0.05099146831574138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03579712266484951</v>
+        <v>0.03617676879886853</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06931549129588367</v>
+        <v>0.07070055826474184</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1752,19 +1752,19 @@
         <v>14285</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8447</v>
+        <v>8378</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24036</v>
+        <v>23865</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02553868337179305</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01510101197742735</v>
+        <v>0.01497794704553797</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04297288858979791</v>
+        <v>0.04266737806449664</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -1773,19 +1773,19 @@
         <v>67542</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>50165</v>
+        <v>50669</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89787</v>
+        <v>88053</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04211444964355401</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03127924997161617</v>
+        <v>0.03159369727919644</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05598509682030216</v>
+        <v>0.05490389530702651</v>
       </c>
     </row>
     <row r="19">
@@ -1802,19 +1802,19 @@
         <v>32498</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22032</v>
+        <v>21695</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50465</v>
+        <v>50796</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03111555242119098</v>
+        <v>0.03111555242119099</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0210943152592834</v>
+        <v>0.02077159039851514</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04831816893943634</v>
+        <v>0.04863462395033884</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1823,19 +1823,19 @@
         <v>10584</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5101</v>
+        <v>4901</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21147</v>
+        <v>20151</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01892291815468891</v>
+        <v>0.01892291815468892</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009120444250455335</v>
+        <v>0.00876284436471304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03780808392688962</v>
+        <v>0.03602629228986159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1844,19 +1844,19 @@
         <v>43082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29707</v>
+        <v>29810</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62455</v>
+        <v>60982</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02686319880702884</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01852327135496665</v>
+        <v>0.01858741037638154</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03894260284193447</v>
+        <v>0.03802408098247533</v>
       </c>
     </row>
     <row r="20">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5118</v>
+        <v>5348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001463243544898095</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004900369782443618</v>
+        <v>0.005120340412473152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1894,19 +1894,19 @@
         <v>3077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7229</v>
+        <v>7721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005500878766875127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001295472199913796</v>
+        <v>0.001312285084203601</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01292494287587865</v>
+        <v>0.01380457041924069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1915,19 +1915,19 @@
         <v>4605</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1847</v>
+        <v>1836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9950</v>
+        <v>9718</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002871425923993447</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001151508159443695</v>
+        <v>0.001144904024403505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006203937893862005</v>
+        <v>0.006059763830169359</v>
       </c>
     </row>
     <row r="21">
@@ -1944,19 +1944,19 @@
         <v>3916</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10654</v>
+        <v>11544</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.00374935781181979</v>
+        <v>0.003749357811819791</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0009138794474682442</v>
+        <v>0.0009348339412279617</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01020029523606922</v>
+        <v>0.01105255191529558</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1978,19 +1978,19 @@
         <v>3916</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11637</v>
+        <v>11679</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002441716255992742</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0005932213003488563</v>
+        <v>0.0005966897329991426</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.007255864859822435</v>
+        <v>0.007282023571673419</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>13342</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7085</v>
+        <v>7026</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22314</v>
+        <v>22365</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01277409073212474</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006783412285713427</v>
+        <v>0.006727564976842806</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02136506383105941</v>
+        <v>0.02141375841540514</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2028,19 +2028,19 @@
         <v>2112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5906</v>
+        <v>5679</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00377646351972785</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001003794860827685</v>
+        <v>0.001009075560415147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01055959056133149</v>
+        <v>0.01015342495742068</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2049,19 +2049,19 @@
         <v>15454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8773</v>
+        <v>8961</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25564</v>
+        <v>24379</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009636041008068162</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005470101256040586</v>
+        <v>0.005587287606124104</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01594007938766114</v>
+        <v>0.01520114549552736</v>
       </c>
     </row>
     <row r="23">
@@ -2153,19 +2153,19 @@
         <v>87896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70831</v>
+        <v>71998</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>106945</v>
+        <v>106505</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2405667605737424</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1938598646813635</v>
+        <v>0.1970557781602699</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2927033836089414</v>
+        <v>0.2914991095708248</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>150</v>
@@ -2174,19 +2174,19 @@
         <v>107049</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93430</v>
+        <v>93852</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>123504</v>
+        <v>121047</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3985048229063668</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3478062896853716</v>
+        <v>0.3493781467057965</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.459761819578631</v>
+        <v>0.4506138760879839</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>240</v>
@@ -2195,19 +2195,19 @@
         <v>194945</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>173603</v>
+        <v>172982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>218635</v>
+        <v>219964</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3074856862057726</v>
+        <v>0.3074856862057725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2738233313273072</v>
+        <v>0.2728443349792915</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3448518902205501</v>
+        <v>0.3469480094427737</v>
       </c>
     </row>
     <row r="25">
@@ -2224,19 +2224,19 @@
         <v>145986</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124552</v>
+        <v>124996</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>166936</v>
+        <v>166914</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.399557238303293</v>
+        <v>0.3995572383032929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3408916696738897</v>
+        <v>0.3421071914485657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4568962595770127</v>
+        <v>0.4568363623561285</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -2245,19 +2245,19 @@
         <v>79428</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66949</v>
+        <v>67207</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94091</v>
+        <v>93756</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2956813140181883</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2492263647545541</v>
+        <v>0.2501877774074048</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3502669338603686</v>
+        <v>0.3490210817916838</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>253</v>
@@ -2266,19 +2266,19 @@
         <v>225414</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>202928</v>
+        <v>202282</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>250003</v>
+        <v>251938</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3555446352009854</v>
+        <v>0.3555446352009853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3200779184461976</v>
+        <v>0.3190587577565362</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3943281308701965</v>
+        <v>0.3973806274023728</v>
       </c>
     </row>
     <row r="26">
@@ -2295,19 +2295,19 @@
         <v>82200</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62948</v>
+        <v>65925</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102304</v>
+        <v>105041</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2249767736763607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1722858397308873</v>
+        <v>0.1804337964071703</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2800017732570132</v>
+        <v>0.2874908396999185</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -2316,19 +2316,19 @@
         <v>46855</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36005</v>
+        <v>36923</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61095</v>
+        <v>60165</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1744241901660319</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1340342645786804</v>
+        <v>0.1374515547029634</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2274336352757791</v>
+        <v>0.2239721988430841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -2337,19 +2337,19 @@
         <v>129055</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>107661</v>
+        <v>107859</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>149647</v>
+        <v>150655</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.203557462039435</v>
+        <v>0.2035574620394349</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1698132308565714</v>
+        <v>0.1701250803497087</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2360370658910252</v>
+        <v>0.2376269832410436</v>
       </c>
     </row>
     <row r="27">
@@ -2366,19 +2366,19 @@
         <v>22369</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14718</v>
+        <v>13768</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>33385</v>
+        <v>33941</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06122355693268568</v>
+        <v>0.06122355693268566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04028359168788903</v>
+        <v>0.03768301608377937</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09137367092121035</v>
+        <v>0.09289366948814792</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -2387,19 +2387,19 @@
         <v>7719</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3504</v>
+        <v>3812</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14448</v>
+        <v>13581</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02873521617935177</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01304349383610164</v>
+        <v>0.01419003720826087</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05378443233241943</v>
+        <v>0.05055556091413704</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>32</v>
@@ -2408,19 +2408,19 @@
         <v>30088</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20872</v>
+        <v>21264</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42869</v>
+        <v>43111</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.04745812998828206</v>
+        <v>0.04745812998828205</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03292099878617316</v>
+        <v>0.03354023004051819</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06761662345082441</v>
+        <v>0.06799929583742245</v>
       </c>
     </row>
     <row r="28">
@@ -2437,19 +2437,19 @@
         <v>9634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4131</v>
+        <v>4709</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20405</v>
+        <v>19700</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02636717780134633</v>
+        <v>0.02636717780134632</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01130754598310969</v>
+        <v>0.01288829830359447</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0558483790413808</v>
+        <v>0.0539166936867253</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2458,19 +2458,19 @@
         <v>11838</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5600</v>
+        <v>5653</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20761</v>
+        <v>21445</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04406892256688853</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02084496622558998</v>
+        <v>0.02104281095458836</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07728736201331302</v>
+        <v>0.07983319869615695</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -2479,19 +2479,19 @@
         <v>21472</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12857</v>
+        <v>12545</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34130</v>
+        <v>34479</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03386747078979466</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02027979024447578</v>
+        <v>0.01978694911583855</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05383301296492876</v>
+        <v>0.05438307253765143</v>
       </c>
     </row>
     <row r="29">
@@ -2508,19 +2508,19 @@
         <v>14312</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8372</v>
+        <v>7938</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24710</v>
+        <v>23340</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03917157832561724</v>
+        <v>0.03917157832561723</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02291267375873602</v>
+        <v>0.02172655577383943</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06762984441613235</v>
+        <v>0.06388027784603195</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2529,19 +2529,19 @@
         <v>12636</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6278</v>
+        <v>6778</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23205</v>
+        <v>24212</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04703898536802729</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02336945339004635</v>
+        <v>0.02523139790588223</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08638188721433829</v>
+        <v>0.09013370234700256</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -2550,19 +2550,19 @@
         <v>26948</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17528</v>
+        <v>18025</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39577</v>
+        <v>39735</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04250502701437704</v>
+        <v>0.04250502701437702</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02764741816236934</v>
+        <v>0.02843024070634881</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06242502911044949</v>
+        <v>0.06267444346138572</v>
       </c>
     </row>
     <row r="30">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4465</v>
+        <v>3655</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002011139647174068</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01222051800547469</v>
+        <v>0.01000477089047901</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6762</v>
+        <v>5745</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004976425961361703</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02517064213191748</v>
+        <v>0.02138605250416887</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2624,16 +2624,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6776</v>
+        <v>7588</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.003267542134364832</v>
+        <v>0.003267542134364831</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01068826235892804</v>
+        <v>0.01196894302850181</v>
       </c>
     </row>
     <row r="31">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3392</v>
+        <v>3068</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001804927874480292</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.009283685932602103</v>
+        <v>0.008396650179464525</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3311</v>
+        <v>4038</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00104017343581212</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.005223080097624997</v>
+        <v>0.006369644793952119</v>
       </c>
     </row>
     <row r="32">
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5305</v>
+        <v>5760</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.004320846865300232</v>
+        <v>0.004320846865300231</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01451937089899373</v>
+        <v>0.01576389441364393</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2734,19 +2734,19 @@
         <v>1765</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4622</v>
+        <v>4986</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006570122833783706</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00157169406153779</v>
+        <v>0.001594509850640344</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0172067296595431</v>
+        <v>0.0185593027553371</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2755,19 +2755,19 @@
         <v>3344</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1116</v>
+        <v>1064</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7581</v>
+        <v>7848</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.005273873191176375</v>
+        <v>0.005273873191176374</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001759777216775917</v>
+        <v>0.001677631479411934</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01195794971337407</v>
+        <v>0.01237793476069389</v>
       </c>
     </row>
     <row r="33">
@@ -2859,19 +2859,19 @@
         <v>349186</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>315374</v>
+        <v>313132</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>392034</v>
+        <v>388661</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2098013763709156</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1894862718596167</v>
+        <v>0.1881393557466565</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.235546102409924</v>
+        <v>0.2335194030501388</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>519</v>
@@ -2880,19 +2880,19 @@
         <v>364739</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>337615</v>
+        <v>337581</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>388780</v>
+        <v>390779</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4045858389069349</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.374498585152641</v>
+        <v>0.374460996366835</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4312527178098568</v>
+        <v>0.4334699026095483</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>854</v>
@@ -2901,19 +2901,19 @@
         <v>713925</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>669049</v>
+        <v>666151</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>766536</v>
+        <v>760844</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2782383344742911</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2607487687595931</v>
+        <v>0.2596191254883338</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2987423616724516</v>
+        <v>0.2965240355034637</v>
       </c>
     </row>
     <row r="35">
@@ -2930,19 +2930,19 @@
         <v>683483</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>639758</v>
+        <v>632315</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>732663</v>
+        <v>727809</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4106575185827313</v>
+        <v>0.4106575185827314</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3843862280176247</v>
+        <v>0.379914231304643</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4402063984719793</v>
+        <v>0.4372898522613797</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>395</v>
@@ -2951,19 +2951,19 @@
         <v>289450</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>264042</v>
+        <v>265147</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>317312</v>
+        <v>315594</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3210708424104754</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2928880908658938</v>
+        <v>0.2941138317064</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3519772262023548</v>
+        <v>0.3500712893655839</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1075</v>
@@ -2972,19 +2972,19 @@
         <v>972933</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>921512</v>
+        <v>921440</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1026251</v>
+        <v>1020644</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3791814987606288</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3591410435577204</v>
+        <v>0.3591132325192272</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3999610262245279</v>
+        <v>0.3977758062836736</v>
       </c>
     </row>
     <row r="36">
@@ -3001,19 +3001,19 @@
         <v>356909</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>319289</v>
+        <v>319272</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>392347</v>
+        <v>393949</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2144420739325966</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1918383471578277</v>
+        <v>0.1918283004444463</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2357340492245833</v>
+        <v>0.2366965646905219</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>172</v>
@@ -3022,19 +3022,19 @@
         <v>147412</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>127506</v>
+        <v>128502</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>170638</v>
+        <v>171295</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1635158750385911</v>
+        <v>0.163515875038591</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1414351689118897</v>
+        <v>0.1425398836486604</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1892798160079165</v>
+        <v>0.1900087758551138</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>485</v>
@@ -3043,19 +3043,19 @@
         <v>504321</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>463917</v>
+        <v>461311</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>547972</v>
+        <v>549377</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1965493010969361</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1808025723771587</v>
+        <v>0.1797868851373387</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2135611357668655</v>
+        <v>0.2141086881173244</v>
       </c>
     </row>
     <row r="37">
@@ -3072,19 +3072,19 @@
         <v>114161</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>93489</v>
+        <v>92468</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>141186</v>
+        <v>142876</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.0685912485741558</v>
+        <v>0.06859124857415581</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05617095942892739</v>
+        <v>0.05555751702132355</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08482898128885025</v>
+        <v>0.08584404936149821</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -3093,19 +3093,19 @@
         <v>36449</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>26385</v>
+        <v>26427</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>48626</v>
+        <v>48676</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.0404314151649641</v>
+        <v>0.04043141516496409</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02926764585981828</v>
+        <v>0.02931391158105571</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05393871814184861</v>
+        <v>0.05399415540811716</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>142</v>
@@ -3114,19 +3114,19 @@
         <v>150610</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>126797</v>
+        <v>126563</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>179402</v>
+        <v>178715</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05869737247063181</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04941661730624016</v>
+        <v>0.04932544066969534</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06991843918474948</v>
+        <v>0.06965072870981175</v>
       </c>
     </row>
     <row r="38">
@@ -3143,19 +3143,19 @@
         <v>73362</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>54943</v>
+        <v>55883</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>97299</v>
+        <v>98018</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.04407828523471973</v>
+        <v>0.04407828523471974</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03301158322699767</v>
+        <v>0.03357621366396164</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05846046094238985</v>
+        <v>0.0588922751048119</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>30</v>
@@ -3164,19 +3164,19 @@
         <v>27966</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18945</v>
+        <v>18879</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>41548</v>
+        <v>41111</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03102157061191999</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02101419480267187</v>
+        <v>0.02094194010893521</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04608703223948742</v>
+        <v>0.04560224820182253</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>89</v>
@@ -3185,19 +3185,19 @@
         <v>101329</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>78269</v>
+        <v>80421</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>124984</v>
+        <v>128387</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03949084627796495</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03050397886134484</v>
+        <v>0.03134243164645154</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04871008996332336</v>
+        <v>0.05003638823654898</v>
       </c>
     </row>
     <row r="39">
@@ -3214,19 +3214,19 @@
         <v>54216</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>39634</v>
+        <v>41543</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>73987</v>
+        <v>75340</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03257491997496188</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02381352691223241</v>
+        <v>0.02496047677613767</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04445376818293227</v>
+        <v>0.04526678462615818</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>25</v>
@@ -3235,19 +3235,19 @@
         <v>24986</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>16573</v>
+        <v>16122</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>38414</v>
+        <v>38445</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.0277160948070985</v>
+        <v>0.02771609480709849</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01838345504922639</v>
+        <v>0.01788273545043551</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04261101646529842</v>
+        <v>0.04264499528950706</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>72</v>
@@ -3256,19 +3256,19 @@
         <v>79203</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>61549</v>
+        <v>60712</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>101531</v>
+        <v>101870</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03086778579128333</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0239875678469148</v>
+        <v>0.02366143107634481</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03956962495288545</v>
+        <v>0.03970185370313854</v>
       </c>
     </row>
     <row r="40">
@@ -3285,19 +3285,19 @@
         <v>5682</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2800</v>
+        <v>2709</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12034</v>
+        <v>11167</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.003413724642900197</v>
+        <v>0.003413724642900198</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001682246918625593</v>
+        <v>0.001627906087372052</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007230565692873639</v>
+        <v>0.006709209813651871</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3306,19 +3306,19 @@
         <v>4875</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1677</v>
+        <v>2074</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10515</v>
+        <v>11210</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.00540806184431394</v>
+        <v>0.005408061844313939</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001860127238369808</v>
+        <v>0.002300917506692242</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01166358503723423</v>
+        <v>0.01243492670715</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -3327,19 +3327,19 @@
         <v>10557</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5961</v>
+        <v>6001</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17820</v>
+        <v>18193</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.004114429256195094</v>
+        <v>0.004114429256195095</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002323020776546792</v>
+        <v>0.002338744296498719</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006944980623524441</v>
+        <v>0.007090408736705276</v>
       </c>
     </row>
     <row r="41">
@@ -3356,19 +3356,19 @@
         <v>6811</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2702</v>
+        <v>2626</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14956</v>
+        <v>14227</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.004092230291917956</v>
+        <v>0.004092230291917957</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001623353003837957</v>
+        <v>0.001577720922642061</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.00898582225810095</v>
+        <v>0.008548138236724789</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>6811</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2539</v>
+        <v>2656</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>15608</v>
+        <v>14754</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002654437002909779</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0009894980755353628</v>
+        <v>0.001034975845656983</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.006083045786470749</v>
+        <v>0.005749997905340841</v>
       </c>
     </row>
     <row r="42">
@@ -3422,16 +3422,16 @@
         <v>13006</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30827</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01234862239510088</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.007814466765886116</v>
+        <v>0.007814584188315613</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01852204939334581</v>
+        <v>0.01877546302606112</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>7</v>
@@ -3440,19 +3440,19 @@
         <v>5635</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2160</v>
+        <v>2303</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>11606</v>
+        <v>12793</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.006250301215702104</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.002396453546086321</v>
+        <v>0.002554584793634567</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01287377873019615</v>
+        <v>0.01419066894865912</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>30</v>
@@ -3461,19 +3461,19 @@
         <v>26187</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>17695</v>
+        <v>17893</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>37066</v>
+        <v>37682</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01020599486915915</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006896426546281076</v>
+        <v>0.006973525497152271</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01444561126044022</v>
+        <v>0.01468588851510539</v>
       </c>
     </row>
     <row r="43">
